--- a/dados/historico/casa-2023-10-08.xlsx
+++ b/dados/historico/casa-2023-10-08.xlsx
@@ -754,7 +754,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -891,7 +891,7 @@
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>Botafogo-RJ</t>
+          <t>Botafogo (RJ)</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>Botafogo-RJ</t>
+          <t>Botafogo (RJ)</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>Botafogo-RJ</t>
+          <t>Botafogo (RJ)</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>Botafogo-RJ</t>
+          <t>Botafogo (RJ)</t>
         </is>
       </c>
     </row>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>América (MG)</t>
+          <t>America (MG)</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>Botafogo-RJ</t>
+          <t>Botafogo (RJ)</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>Botafogo-RJ</t>
+          <t>Botafogo (RJ)</t>
         </is>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>Botafogo-RJ</t>
+          <t>Botafogo (RJ)</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>Botafogo-RJ</t>
+          <t>Botafogo (RJ)</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>Botafogo-RJ</t>
+          <t>Botafogo (RJ)</t>
         </is>
       </c>
     </row>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>Botafogo-RJ</t>
+          <t>Botafogo (RJ)</t>
         </is>
       </c>
     </row>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>Botafogo-RJ</t>
+          <t>Botafogo (RJ)</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>Botafogo-RJ</t>
+          <t>Botafogo (RJ)</t>
         </is>
       </c>
     </row>
@@ -2968,7 +2968,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="K14" t="n">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>Botafogo-RJ</t>
+          <t>Botafogo (RJ)</t>
         </is>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>América (MG)</t>
+          <t>America (MG)</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="K21" t="n">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Cuiabá</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -5180,7 +5180,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -6288,7 +6288,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -6473,7 +6473,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>América (MG)</t>
+          <t>America (MG)</t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="K36" t="n">
@@ -7579,7 +7579,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Cuiabá</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="K39" t="n">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cuiabá</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="K41" t="n">
@@ -8315,7 +8315,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="K43" t="n">
@@ -9791,7 +9791,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="K51" t="n">
@@ -10527,7 +10527,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="K55" t="n">
@@ -11082,7 +11082,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="K58" t="n">
@@ -11452,7 +11452,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>América (MG)</t>
+          <t>America (MG)</t>
         </is>
       </c>
       <c r="K60" t="n">
@@ -11635,7 +11635,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="K61" t="n">
@@ -12737,7 +12737,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="K67" t="n">
@@ -13292,7 +13292,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="K70" t="n">
@@ -13660,7 +13660,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Cuiabá</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="K72" t="n">
@@ -14581,7 +14581,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="K77" t="n">
@@ -14766,7 +14766,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>América (MG)</t>
+          <t>America (MG)</t>
         </is>
       </c>
       <c r="K78" t="n">
@@ -15319,7 +15319,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Cuiabá</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="K81" t="n">
@@ -15689,7 +15689,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="K83" t="n">
@@ -16791,7 +16791,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>América (MG)</t>
+          <t>America (MG)</t>
         </is>
       </c>
       <c r="K89" t="n">
@@ -17525,7 +17525,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="K93" t="n">
@@ -17662,7 +17662,7 @@
       </c>
       <c r="BC93" t="inlineStr">
         <is>
-          <t>Athletico-Paranaense</t>
+          <t>Ath Paranaense</t>
         </is>
       </c>
     </row>
@@ -17847,7 +17847,7 @@
       </c>
       <c r="BC94" t="inlineStr">
         <is>
-          <t>Athletico-Paranaense</t>
+          <t>Ath Paranaense</t>
         </is>
       </c>
     </row>
@@ -18032,7 +18032,7 @@
       </c>
       <c r="BC95" t="inlineStr">
         <is>
-          <t>Athletico-Paranaense</t>
+          <t>Ath Paranaense</t>
         </is>
       </c>
     </row>
@@ -18080,7 +18080,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="K96" t="n">
@@ -18217,7 +18217,7 @@
       </c>
       <c r="BC96" t="inlineStr">
         <is>
-          <t>Athletico-Paranaense</t>
+          <t>Ath Paranaense</t>
         </is>
       </c>
     </row>
@@ -18402,7 +18402,7 @@
       </c>
       <c r="BC97" t="inlineStr">
         <is>
-          <t>Athletico-Paranaense</t>
+          <t>Ath Paranaense</t>
         </is>
       </c>
     </row>
@@ -18587,7 +18587,7 @@
       </c>
       <c r="BC98" t="inlineStr">
         <is>
-          <t>Athletico-Paranaense</t>
+          <t>Ath Paranaense</t>
         </is>
       </c>
     </row>
@@ -18772,7 +18772,7 @@
       </c>
       <c r="BC99" t="inlineStr">
         <is>
-          <t>Athletico-Paranaense</t>
+          <t>Ath Paranaense</t>
         </is>
       </c>
     </row>
@@ -18957,7 +18957,7 @@
       </c>
       <c r="BC100" t="inlineStr">
         <is>
-          <t>Athletico-Paranaense</t>
+          <t>Ath Paranaense</t>
         </is>
       </c>
     </row>
@@ -19140,7 +19140,7 @@
       </c>
       <c r="BC101" t="inlineStr">
         <is>
-          <t>Athletico-Paranaense</t>
+          <t>Ath Paranaense</t>
         </is>
       </c>
     </row>
@@ -19188,7 +19188,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Cuiabá</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="K102" t="n">
@@ -19325,7 +19325,7 @@
       </c>
       <c r="BC102" t="inlineStr">
         <is>
-          <t>Athletico-Paranaense</t>
+          <t>Ath Paranaense</t>
         </is>
       </c>
     </row>
@@ -19510,7 +19510,7 @@
       </c>
       <c r="BC103" t="inlineStr">
         <is>
-          <t>Athletico-Paranaense</t>
+          <t>Ath Paranaense</t>
         </is>
       </c>
     </row>
@@ -19558,7 +19558,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="K104" t="n">
@@ -19693,7 +19693,7 @@
       </c>
       <c r="BC104" t="inlineStr">
         <is>
-          <t>Athletico-Paranaense</t>
+          <t>Ath Paranaense</t>
         </is>
       </c>
     </row>
@@ -19876,7 +19876,7 @@
       </c>
       <c r="BC105" t="inlineStr">
         <is>
-          <t>Athletico-Paranaense</t>
+          <t>Ath Paranaense</t>
         </is>
       </c>
     </row>
@@ -20059,7 +20059,7 @@
       </c>
       <c r="BC106" t="inlineStr">
         <is>
-          <t>Athletico-Paranaense</t>
+          <t>Ath Paranaense</t>
         </is>
       </c>
     </row>
@@ -20244,7 +20244,7 @@
       </c>
       <c r="BC107" t="inlineStr">
         <is>
-          <t>Atletico-Mineiro</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
     </row>
@@ -20429,7 +20429,7 @@
       </c>
       <c r="BC108" t="inlineStr">
         <is>
-          <t>Atletico-Mineiro</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
     </row>
@@ -20614,7 +20614,7 @@
       </c>
       <c r="BC109" t="inlineStr">
         <is>
-          <t>Atletico-Mineiro</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
     </row>
@@ -20799,7 +20799,7 @@
       </c>
       <c r="BC110" t="inlineStr">
         <is>
-          <t>Atletico-Mineiro</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
     </row>
@@ -20984,7 +20984,7 @@
       </c>
       <c r="BC111" t="inlineStr">
         <is>
-          <t>Atletico-Mineiro</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
     </row>
@@ -21032,7 +21032,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>América (MG)</t>
+          <t>America (MG)</t>
         </is>
       </c>
       <c r="K112" t="n">
@@ -21169,7 +21169,7 @@
       </c>
       <c r="BC112" t="inlineStr">
         <is>
-          <t>Atletico-Mineiro</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
     </row>
@@ -21352,7 +21352,7 @@
       </c>
       <c r="BC113" t="inlineStr">
         <is>
-          <t>Atletico-Mineiro</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
     </row>
@@ -21535,7 +21535,7 @@
       </c>
       <c r="BC114" t="inlineStr">
         <is>
-          <t>Atletico-Mineiro</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
     </row>
@@ -21718,7 +21718,7 @@
       </c>
       <c r="BC115" t="inlineStr">
         <is>
-          <t>Atletico-Mineiro</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
     </row>
@@ -21899,7 +21899,7 @@
       </c>
       <c r="BC116" t="inlineStr">
         <is>
-          <t>Atletico-Mineiro</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
     </row>
@@ -22080,7 +22080,7 @@
       </c>
       <c r="BC117" t="inlineStr">
         <is>
-          <t>Atletico-Mineiro</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
     </row>
@@ -22128,7 +22128,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Cuiabá</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="K118" t="n">
@@ -22263,7 +22263,7 @@
       </c>
       <c r="BC118" t="inlineStr">
         <is>
-          <t>Atletico-Mineiro</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
     </row>
@@ -22446,7 +22446,7 @@
       </c>
       <c r="BC119" t="inlineStr">
         <is>
-          <t>Atletico-Mineiro</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
     </row>
@@ -22494,7 +22494,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>América (MG)</t>
+          <t>America (MG)</t>
         </is>
       </c>
       <c r="K120" t="n">
@@ -22631,7 +22631,7 @@
       </c>
       <c r="BC120" t="inlineStr">
         <is>
-          <t>Sao-Paulo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
     </row>
@@ -22816,7 +22816,7 @@
       </c>
       <c r="BC121" t="inlineStr">
         <is>
-          <t>Sao-Paulo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
     </row>
@@ -23001,7 +23001,7 @@
       </c>
       <c r="BC122" t="inlineStr">
         <is>
-          <t>Sao-Paulo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
     </row>
@@ -23049,7 +23049,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="K123" t="n">
@@ -23186,7 +23186,7 @@
       </c>
       <c r="BC123" t="inlineStr">
         <is>
-          <t>Sao-Paulo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
     </row>
@@ -23371,7 +23371,7 @@
       </c>
       <c r="BC124" t="inlineStr">
         <is>
-          <t>Sao-Paulo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
     </row>
@@ -23556,7 +23556,7 @@
       </c>
       <c r="BC125" t="inlineStr">
         <is>
-          <t>Sao-Paulo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
     </row>
@@ -23741,7 +23741,7 @@
       </c>
       <c r="BC126" t="inlineStr">
         <is>
-          <t>Sao-Paulo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
     </row>
@@ -23924,7 +23924,7 @@
       </c>
       <c r="BC127" t="inlineStr">
         <is>
-          <t>Sao-Paulo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
     </row>
@@ -24107,7 +24107,7 @@
       </c>
       <c r="BC128" t="inlineStr">
         <is>
-          <t>Sao-Paulo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
     </row>
@@ -24155,7 +24155,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="K129" t="n">
@@ -24292,7 +24292,7 @@
       </c>
       <c r="BC129" t="inlineStr">
         <is>
-          <t>Sao-Paulo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
     </row>
@@ -24473,7 +24473,7 @@
       </c>
       <c r="BC130" t="inlineStr">
         <is>
-          <t>Sao-Paulo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
     </row>
@@ -24658,7 +24658,7 @@
       </c>
       <c r="BC131" t="inlineStr">
         <is>
-          <t>Sao-Paulo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
     </row>
@@ -24841,7 +24841,7 @@
       </c>
       <c r="BC132" t="inlineStr">
         <is>
-          <t>Sao-Paulo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
     </row>
@@ -25024,7 +25024,7 @@
       </c>
       <c r="BC133" t="inlineStr">
         <is>
-          <t>Sao-Paulo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
     </row>
@@ -25257,7 +25257,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="K135" t="n">
@@ -25442,7 +25442,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="K136" t="n">
@@ -26365,7 +26365,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="K141" t="n">
@@ -26918,7 +26918,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>América (MG)</t>
+          <t>America (MG)</t>
         </is>
       </c>
       <c r="K144" t="n">
@@ -27469,7 +27469,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="K147" t="n">
@@ -28579,7 +28579,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Cuiabá</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="K153" t="n">
@@ -29128,7 +29128,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="K156" t="n">
@@ -29311,7 +29311,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="K157" t="n">
@@ -29494,7 +29494,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="K158" t="n">
@@ -30047,7 +30047,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="K161" t="n">
@@ -30417,7 +30417,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Cuiabá</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="K163" t="n">
@@ -31155,7 +31155,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="K167" t="n">
@@ -31523,7 +31523,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="K169" t="n">
@@ -32074,7 +32074,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="K172" t="n">
@@ -32259,7 +32259,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>América (MG)</t>
+          <t>America (MG)</t>
         </is>
       </c>
       <c r="K173" t="n">
@@ -33367,7 +33367,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="K179" t="n">
@@ -33916,7 +33916,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="K182" t="n">
@@ -34467,7 +34467,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="K185" t="n">
@@ -35022,7 +35022,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Cuiabá</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="K188" t="n">
@@ -35207,7 +35207,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="K189" t="n">
@@ -35577,7 +35577,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="K191" t="n">
@@ -35943,7 +35943,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="K193" t="n">
@@ -36677,7 +36677,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>América (MG)</t>
+          <t>America (MG)</t>
         </is>
       </c>
       <c r="K197" t="n">
@@ -37415,7 +37415,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="K201" t="n">
@@ -37970,7 +37970,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="K204" t="n">
@@ -38340,7 +38340,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>América (MG)</t>
+          <t>America (MG)</t>
         </is>
       </c>
       <c r="K206" t="n">
@@ -39211,7 +39211,7 @@
       </c>
       <c r="BC210" t="inlineStr">
         <is>
-          <t>Vasco-da-Gama</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
     </row>
@@ -39396,7 +39396,7 @@
       </c>
       <c r="BC211" t="inlineStr">
         <is>
-          <t>Vasco-da-Gama</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
     </row>
@@ -39581,7 +39581,7 @@
       </c>
       <c r="BC212" t="inlineStr">
         <is>
-          <t>Vasco-da-Gama</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
     </row>
@@ -39766,7 +39766,7 @@
       </c>
       <c r="BC213" t="inlineStr">
         <is>
-          <t>Vasco-da-Gama</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
     </row>
@@ -39814,7 +39814,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="K214" t="n">
@@ -39951,7 +39951,7 @@
       </c>
       <c r="BC214" t="inlineStr">
         <is>
-          <t>Vasco-da-Gama</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
     </row>
@@ -39999,7 +39999,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Cuiabá</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="K215" t="n">
@@ -40134,7 +40134,7 @@
       </c>
       <c r="BC215" t="inlineStr">
         <is>
-          <t>Vasco-da-Gama</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
     </row>
@@ -40317,7 +40317,7 @@
       </c>
       <c r="BC216" t="inlineStr">
         <is>
-          <t>Vasco-da-Gama</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
     </row>
@@ -40500,7 +40500,7 @@
       </c>
       <c r="BC217" t="inlineStr">
         <is>
-          <t>Vasco-da-Gama</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
     </row>
@@ -40548,7 +40548,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="K218" t="n">
@@ -40683,7 +40683,7 @@
       </c>
       <c r="BC218" t="inlineStr">
         <is>
-          <t>Vasco-da-Gama</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
     </row>
@@ -40731,7 +40731,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="K219" t="n">
@@ -40868,7 +40868,7 @@
       </c>
       <c r="BC219" t="inlineStr">
         <is>
-          <t>Vasco-da-Gama</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
     </row>
@@ -41051,7 +41051,7 @@
       </c>
       <c r="BC220" t="inlineStr">
         <is>
-          <t>Vasco-da-Gama</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
     </row>
@@ -41234,7 +41234,7 @@
       </c>
       <c r="BC221" t="inlineStr">
         <is>
-          <t>Vasco-da-Gama</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
     </row>
@@ -41282,7 +41282,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="K222" t="n">
@@ -41417,7 +41417,7 @@
       </c>
       <c r="BC222" t="inlineStr">
         <is>
-          <t>Vasco-da-Gama</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
     </row>
@@ -42020,7 +42020,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Cuiabá</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="K226" t="n">
@@ -42575,7 +42575,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="K229" t="n">
@@ -42758,7 +42758,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="K230" t="n">
@@ -44045,7 +44045,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="K237" t="n">
@@ -44415,7 +44415,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="K239" t="n">
@@ -44970,7 +44970,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>América (MG)</t>
+          <t>America (MG)</t>
         </is>
       </c>
       <c r="K242" t="n">
@@ -46205,7 +46205,7 @@
       </c>
       <c r="BC248" t="inlineStr">
         <is>
-          <t>America-MG</t>
+          <t>America (MG)</t>
         </is>
       </c>
     </row>
@@ -46253,7 +46253,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Cuiabá</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="K249" t="n">
@@ -46390,7 +46390,7 @@
       </c>
       <c r="BC249" t="inlineStr">
         <is>
-          <t>America-MG</t>
+          <t>America (MG)</t>
         </is>
       </c>
     </row>
@@ -46575,7 +46575,7 @@
       </c>
       <c r="BC250" t="inlineStr">
         <is>
-          <t>America-MG</t>
+          <t>America (MG)</t>
         </is>
       </c>
     </row>
@@ -46760,7 +46760,7 @@
       </c>
       <c r="BC251" t="inlineStr">
         <is>
-          <t>America-MG</t>
+          <t>America (MG)</t>
         </is>
       </c>
     </row>
@@ -46945,7 +46945,7 @@
       </c>
       <c r="BC252" t="inlineStr">
         <is>
-          <t>America-MG</t>
+          <t>America (MG)</t>
         </is>
       </c>
     </row>
@@ -47130,7 +47130,7 @@
       </c>
       <c r="BC253" t="inlineStr">
         <is>
-          <t>America-MG</t>
+          <t>America (MG)</t>
         </is>
       </c>
     </row>
@@ -47315,7 +47315,7 @@
       </c>
       <c r="BC254" t="inlineStr">
         <is>
-          <t>America-MG</t>
+          <t>America (MG)</t>
         </is>
       </c>
     </row>
@@ -47498,7 +47498,7 @@
       </c>
       <c r="BC255" t="inlineStr">
         <is>
-          <t>America-MG</t>
+          <t>America (MG)</t>
         </is>
       </c>
     </row>
@@ -47546,7 +47546,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="K256" t="n">
@@ -47681,7 +47681,7 @@
       </c>
       <c r="BC256" t="inlineStr">
         <is>
-          <t>America-MG</t>
+          <t>America (MG)</t>
         </is>
       </c>
     </row>
@@ -47729,7 +47729,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="K257" t="n">
@@ -47864,7 +47864,7 @@
       </c>
       <c r="BC257" t="inlineStr">
         <is>
-          <t>America-MG</t>
+          <t>America (MG)</t>
         </is>
       </c>
     </row>
@@ -48047,7 +48047,7 @@
       </c>
       <c r="BC258" t="inlineStr">
         <is>
-          <t>America-MG</t>
+          <t>America (MG)</t>
         </is>
       </c>
     </row>
@@ -48230,7 +48230,7 @@
       </c>
       <c r="BC259" t="inlineStr">
         <is>
-          <t>America-MG</t>
+          <t>America (MG)</t>
         </is>
       </c>
     </row>
@@ -48413,7 +48413,7 @@
       </c>
       <c r="BC260" t="inlineStr">
         <is>
-          <t>America-MG</t>
+          <t>America (MG)</t>
         </is>
       </c>
     </row>
